--- a/test_file/file.xlsx
+++ b/test_file/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segun\PycharmProjects\model\test_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A14ECF-86F7-4190-BB13-27E89F67C77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09D4706-EA80-4A97-9DB2-6074AE6B83F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{311C3772-A63D-412E-883F-EBAC087B2CEC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>merch_user</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>RtAZNks</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
 </sst>
 </file>
@@ -420,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC01D3D-E664-4997-AE0C-94E8D1663F59}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +447,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>17000</v>
       </c>
@@ -455,8 +467,14 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2">
+        <v>315499</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>315499</v>
       </c>
@@ -468,6 +486,32 @@
       </c>
       <c r="D3" t="s">
         <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>315499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>17000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>315499</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/test_file/file.xlsx
+++ b/test_file/file.xlsx
@@ -8,33 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segun\PycharmProjects\model\test_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09D4706-EA80-4A97-9DB2-6074AE6B83F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F77D1AC-4C20-49DB-A540-4417A2579346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{311C3772-A63D-412E-883F-EBAC087B2CEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="details" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>merch_user</t>
   </si>
@@ -48,6 +34,27 @@
     <t>admn_pass</t>
   </si>
   <si>
+    <t>current_password</t>
+  </si>
+  <si>
+    <t>new_password</t>
+  </si>
+  <si>
+    <t>wrong_confirm</t>
+  </si>
+  <si>
+    <t>merch_name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
     <t>Cswtest1.</t>
   </si>
   <si>
@@ -57,13 +64,22 @@
     <t>Yadi1.com</t>
   </si>
   <si>
-    <t>RtAZNks</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>yadinew1</t>
+  </si>
+  <si>
+    <t>yadi1new</t>
+  </si>
+  <si>
+    <t>Csw Test</t>
+  </si>
+  <si>
+    <t>ELECTRICITY</t>
+  </si>
+  <si>
+    <t>IkejaPrepaid - E01E</t>
+  </si>
+  <si>
+    <t>SHAGO</t>
   </si>
 </sst>
 </file>
@@ -108,9 +124,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,93 +446,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC01D3D-E664-4997-AE0C-94E8D1663F59}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>17000</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>315499</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>315499</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>315499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>17000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>315499</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/test_file/file.xlsx
+++ b/test_file/file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segun\PycharmProjects\model\test_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F77D1AC-4C20-49DB-A540-4417A2579346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE3C7DA-EFE4-4D3A-AD17-48925C515A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="1700" windowWidth="16580" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="details" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>merch_user</t>
   </si>
@@ -55,6 +55,12 @@
     <t>provider</t>
   </si>
   <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
     <t>Cswtest1.</t>
   </si>
   <si>
@@ -80,6 +86,12 @@
   </si>
   <si>
     <t>SHAGO</t>
+  </si>
+  <si>
+    <t>30062025000000</t>
+  </si>
+  <si>
+    <t>01072025235900</t>
   </si>
 </sst>
 </file>
@@ -124,13 +136,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -447,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,77 +484,89 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>17000</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
